--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.001221447794666667</v>
+        <v>0.03912230315066666</v>
       </c>
       <c r="R2">
-        <v>0.010993030152</v>
+        <v>0.352100728356</v>
       </c>
       <c r="S2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="T2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +620,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
         <v>0.03690813960888889</v>
       </c>
       <c r="R3">
-        <v>0.33217325648</v>
+        <v>0.3321732564800001</v>
       </c>
       <c r="S3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="T3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.008208816171111112</v>
+        <v>0.007229854065777779</v>
       </c>
       <c r="R4">
-        <v>0.07387934554</v>
+        <v>0.06506868659200001</v>
       </c>
       <c r="S4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="T4">
-        <v>0.139228427931141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1036706666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.311012</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.365222</v>
-      </c>
-      <c r="O5">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P5">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q5">
-        <v>0.01262093607377778</v>
-      </c>
-      <c r="R5">
-        <v>0.113588424664</v>
-      </c>
-      <c r="S5">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="T5">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
     </row>
   </sheetData>
